--- a/templates/mouser.xlsx
+++ b/templates/mouser.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hsaugsburgde-my.sharepoint.com/personal/daniel_polz_tha_de/Documents/Desktop/AutoBANF/autoBANF/testfiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hsaugsburgde-my.sharepoint.com/personal/daniel_polz_tha_de/Documents/Dokumente/autoBANF/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="11_B9C72C459B57407FF14826BB497DF614AF872288" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8704C30-AAB3-408E-AAEC-B1DFD4321EFE}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C54B73AB-86F2-4445-A62B-55920EF4B1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB81E840-BE59-49B9-AA8F-3E28A7930769}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4935" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4935" windowWidth="28800" windowHeight="15285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Artikel_Import" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="327">
   <si>
     <t>Kategorie</t>
   </si>
@@ -530,6 +530,492 @@
   </si>
   <si>
     <t>Menge: 10, Einzelpreis: 0,980 €, 849-CPC1006NTR, KD. PN.:, MFR PN: CPC1006NTR, MXL 3A 100mOhm 3, IXYS Solid State Relays - PCB Mount, RoHS: Konform, ECCN: EAR99 / US HTS: 8541498000</t>
+  </si>
+  <si>
+    <t>Abfall und Entsorgung-&gt;Altpapierentsorgung</t>
+  </si>
+  <si>
+    <t>Abfall und Entsorgung-&gt;Aufw. f. Abfall- und Entsorgung</t>
+  </si>
+  <si>
+    <t>Arbeitssicherheit/med. Dienst/Gesundheitsmanagement-&gt;Aufwendungen f. Arbeitssicherheit und Betriebsmedizin</t>
+  </si>
+  <si>
+    <t>Arbeitssicherheit/med. Dienst/Gesundheitsmanagement-&gt;Aufwendungen für Arbeitsschutzkleidung</t>
+  </si>
+  <si>
+    <t>Arbeitssicherheit/med. Dienst/Gesundheitsmanagement-&gt;Maßnahmen des Gesundheitsmanagements</t>
+  </si>
+  <si>
+    <t>Bedarf Labore und Werkstätten-&gt;Allg. Bedarf Labore und Werkstätten</t>
+  </si>
+  <si>
+    <t>Bedarf Labore und Werkstätten-&gt;Allg. Bedarf Werkstätten</t>
+  </si>
+  <si>
+    <t>Bedarf Labore und Werkstätten-&gt;Aufwendungen für Chemie, Gas, org. Material</t>
+  </si>
+  <si>
+    <t>Bedarf Labore und Werkstätten-&gt;Aufwendungen für Elektro-,Elektronikmaterial, Medizintechnik</t>
+  </si>
+  <si>
+    <t>Bedarf Labore und Werkstätten-&gt;Aufwendungen für Holz, Kunststoff, Glas, Metall</t>
+  </si>
+  <si>
+    <t>Bedarf Labore und Werkstätten-&gt;Aufwendungen med. Hilfsmittel und med. Material</t>
+  </si>
+  <si>
+    <t>Bedarf Labore und Werkstätten-&gt;Foto-, Optik-, Glas-Material</t>
+  </si>
+  <si>
+    <t>Bedarf Labore und Werkstätten-&gt;Holz und Holzerzeugnisse</t>
+  </si>
+  <si>
+    <t>Bedarf Labore und Werkstätten-&gt;Künstlerisches Material</t>
+  </si>
+  <si>
+    <t>Bedarf Labore und Werkstätten-&gt;Kunststoff und Kunststofferzeugnisse</t>
+  </si>
+  <si>
+    <t>Bedarf Labore und Werkstätten-&gt;Labor- und Geschäftsausstattung</t>
+  </si>
+  <si>
+    <t>Bedarf Labore und Werkstätten-&gt;Metall und Metallerzeugnisse</t>
+  </si>
+  <si>
+    <t>Bedarf Labore und Werkstätten-&gt;Verbrauchsmaterial Labor</t>
+  </si>
+  <si>
+    <t>Beiträge-&gt;Mitgliedsbeiträge</t>
+  </si>
+  <si>
+    <t>Beiträge-&gt;Versicherungsbeiträge, Prämien</t>
+  </si>
+  <si>
+    <t>Büro- und Geschäftsbedarf-&gt;Aufwendungen Büro- und Geschäftsbedarf</t>
+  </si>
+  <si>
+    <t>Büro- und Geschäftsbedarf-&gt;Aufwendungen Lehr- und Unterrichtsmaterial</t>
+  </si>
+  <si>
+    <t>Büro- und Geschäftsbedarf-&gt;Ausstattungsgegenstände Gebäude AK</t>
+  </si>
+  <si>
+    <t>Büro- und Geschäftsbedarf-&gt;Bürobedarf (Tacker, Locher, Taschenrechner)</t>
+  </si>
+  <si>
+    <t>Büro- und Geschäftsbedarf-&gt;Karten, Transponder, Ausweise,Kopierkarten</t>
+  </si>
+  <si>
+    <t>Büro- und Geschäftsbedarf-&gt;Papier</t>
+  </si>
+  <si>
+    <t>Büro- und Geschäftsbedarf-&gt;sonstiger Bürobedarf</t>
+  </si>
+  <si>
+    <t>Büro- und Geschäftsbedarf-&gt;Visitenkarten</t>
+  </si>
+  <si>
+    <t>Büro- und Geschäftsbedarf-&gt;Vordrucke, Formulare</t>
+  </si>
+  <si>
+    <t>Dienst- und Fremdleistungen-&gt;Akkreditierung</t>
+  </si>
+  <si>
+    <t>Dienst- und Fremdleistungen-&gt;Aufw. f. Beratungsleistungen</t>
+  </si>
+  <si>
+    <t>Dienst- und Fremdleistungen-&gt;Aufw. f. Dienstleistungen</t>
+  </si>
+  <si>
+    <t>Dienst- und Fremdleistungen-&gt;Aufw. f. Sachverständige</t>
+  </si>
+  <si>
+    <t>Dienst- und Fremdleistungen-&gt;Aufw. F. Schließ- und Wachdienste</t>
+  </si>
+  <si>
+    <t>Dienst- und Fremdleistungen-&gt;Fremdvergabe Forschung</t>
+  </si>
+  <si>
+    <t>Dienst- und Fremdleistungen-&gt;Presse-, Dienst- und Fotoarbeiten</t>
+  </si>
+  <si>
+    <t>Dienst- und Fremdleistungen-&gt;Provisionen an Dienstleister,Handels- Versicherungsvertreter</t>
+  </si>
+  <si>
+    <t>Dienst- und Fremdleistungen-&gt;Rechtsverfolgungskosten</t>
+  </si>
+  <si>
+    <t>Dienst- und Fremdleistungen-&gt;Seminare/Workshops/ Teilnahmegebühren</t>
+  </si>
+  <si>
+    <t>Dienst- und Fremdleistungen-&gt;Umzugs- und Verlegungskosten</t>
+  </si>
+  <si>
+    <t>Dienst- und Fremdleistungen-&gt;Vergabekosten für Datenerfassung, Softwareentwicklung u.ä.</t>
+  </si>
+  <si>
+    <t>Dienst- und Fremdleistungen-&gt;Werkverträge</t>
+  </si>
+  <si>
+    <t>Dienst- und Fremdleistungen-&gt;Wirtschaftspfüfung</t>
+  </si>
+  <si>
+    <t>Energie und Wasser-&gt;Aufwendungen für Energie und Wasser</t>
+  </si>
+  <si>
+    <t>Energie und Wasser-&gt;Fernwärme</t>
+  </si>
+  <si>
+    <t>Energie und Wasser-&gt;Heizöl</t>
+  </si>
+  <si>
+    <t>Energie und Wasser-&gt;Heizstrom</t>
+  </si>
+  <si>
+    <t>Energie und Wasser-&gt;Heizung durch Gas</t>
+  </si>
+  <si>
+    <t>Energie und Wasser-&gt;Kraftstoffe</t>
+  </si>
+  <si>
+    <t>Energie und Wasser-&gt;regenerative Energie</t>
+  </si>
+  <si>
+    <t>Energie und Wasser-&gt;Strom (Beleuchtung und elektrische Kraft)</t>
+  </si>
+  <si>
+    <t>Energie und Wasser-&gt;Wasser, Abwasser, Niederschlagswasser</t>
+  </si>
+  <si>
+    <t>Exkursionen-&gt;Exkursionen/Studienfahrten: Ausland</t>
+  </si>
+  <si>
+    <t>Exkursionen-&gt;Exkursionen/Studienfahrten: Inland</t>
+  </si>
+  <si>
+    <t>Fort- und Weiterbildung-&gt;Fortbildungsmaßnahmen: Ausland</t>
+  </si>
+  <si>
+    <t>Fort- und Weiterbildung-&gt;Fortbildungsmaßnahmen: Inland</t>
+  </si>
+  <si>
+    <t>Fort- und Weiterbildung-&gt;Weiterbildungsaufwand</t>
+  </si>
+  <si>
+    <t>Gebäudeunterhalt-&gt;Außenreinigung / Winterdienst</t>
+  </si>
+  <si>
+    <t>Gebäudeunterhalt-&gt;Glasreinigung</t>
+  </si>
+  <si>
+    <t>Gebäudeunterhalt-&gt;Kaminkehrer und Straßenreinigung</t>
+  </si>
+  <si>
+    <t>Gebäudeunterhalt-&gt;laufende Unterhaltsreinigung / Grundreinigung</t>
+  </si>
+  <si>
+    <t>Gebäudeunterhalt-&gt;Sonderreinigung / Schädlingsbekämpfung</t>
+  </si>
+  <si>
+    <t>Gebäudeunterhalt-&gt;Textilreinigung</t>
+  </si>
+  <si>
+    <t>Hochschulsport-&gt;Allgemeiner Hochschulsport</t>
+  </si>
+  <si>
+    <t>Hochschulsport-&gt;Teilnahme- Startgebühren, Beiträge</t>
+  </si>
+  <si>
+    <t>Instandhaltung und Wartung Gebäude und Technik-&gt;Aufw. f. Unterhalt Außenanlagen</t>
+  </si>
+  <si>
+    <t>Instandhaltung und Wartung Gebäude und Technik-&gt;Aufwend. techn. Zubehör, Ersatzteile</t>
+  </si>
+  <si>
+    <t>Instandhaltung und Wartung Gebäude und Technik-&gt;Notrufschaltungen</t>
+  </si>
+  <si>
+    <t>Instandhaltung und Wartung Gebäude und Technik-&gt;Prüfung Tor-, Tür-Fernmelde- und inform.technische Anlagen</t>
+  </si>
+  <si>
+    <t>Instandhaltung und Wartung Gebäude und Technik-&gt;Prüfung von Betriebs- und Geschäftsausstattung</t>
+  </si>
+  <si>
+    <t>Instandhaltung und Wartung Gebäude und Technik-&gt;Prüfung, Reparatur techn. Anlagen</t>
+  </si>
+  <si>
+    <t>investiv &gt;800 €-&gt;Investiv - Büromöbel- und Büroausstattung</t>
+  </si>
+  <si>
+    <t>investiv &gt;800 €-&gt;Investiv - Hardware PC-Anlagen</t>
+  </si>
+  <si>
+    <t>investiv &gt;800 €-&gt;Investiv - Kleingeräte</t>
+  </si>
+  <si>
+    <t>investiv &gt;800 €-&gt;Investiv - Küchen- und Küchenausstattung</t>
+  </si>
+  <si>
+    <t>investiv &gt;800 €-&gt;Investiv - Leasing BGA Werkstatt- und Laboreinrichtung</t>
+  </si>
+  <si>
+    <t>investiv &gt;800 €-&gt;Investiv - Mensaausstattung</t>
+  </si>
+  <si>
+    <t>investiv &gt;800 €-&gt;Investiv - Messestand</t>
+  </si>
+  <si>
+    <t>investiv &gt;800 €-&gt;Investiv - Nutzfahrzeuge</t>
+  </si>
+  <si>
+    <t>investiv &gt;800 €-&gt;Investiv - PKW</t>
+  </si>
+  <si>
+    <t>investiv &gt;800 €-&gt;Investiv - Software und Lizenzen</t>
+  </si>
+  <si>
+    <t>investiv &gt;800 €-&gt;Investiv - sonstige Büro- und allg. Einrichtung</t>
+  </si>
+  <si>
+    <t>investiv &gt;800 €-&gt;Investiv - Sonstige technischen Anlagen und Maschinen</t>
+  </si>
+  <si>
+    <t>investiv &gt;800 €-&gt;Investiv - Video-, Medien und Konferenzausstattung</t>
+  </si>
+  <si>
+    <t>investiv &gt;800 €-&gt;Investiv - Werkzeuge und sonstige Geräte</t>
+  </si>
+  <si>
+    <t>investiv &gt;800 €-&gt;Investiv - Zeiterfassungsgeräte</t>
+  </si>
+  <si>
+    <t>investiv-GWG &gt;250 - 800€-&gt;Investiv - GWG Bibliothek</t>
+  </si>
+  <si>
+    <t>investiv-GWG &gt;250 - 800€-&gt;Investiv - GWG Büroeinrichtung</t>
+  </si>
+  <si>
+    <t>investiv-GWG &gt;250 - 800€-&gt;Investiv - GWG Fuhrpark</t>
+  </si>
+  <si>
+    <t>investiv-GWG &gt;250 - 800€-&gt;Investiv - GWG Informations- und Kommunikationstechnik</t>
+  </si>
+  <si>
+    <t>investiv-GWG &gt;250 - 800€-&gt;Investiv - GWG technische Anlagen und Maschinen</t>
+  </si>
+  <si>
+    <t>investiv-GWG &gt;250 - 800€-&gt;Investiv - GWG Werkstätten und Labore</t>
+  </si>
+  <si>
+    <t>IT-Bedarf, Hard- und Software-&gt;Allg. EDV Bedarf</t>
+  </si>
+  <si>
+    <t>IT-Bedarf, Hard- und Software-&gt;Medien, Fotografie, Speicherkarten</t>
+  </si>
+  <si>
+    <t>Kälte-&gt;Kälte</t>
+  </si>
+  <si>
+    <t>Konzessionen/Lizenzen-&gt;Aufwendungen für Konzessionen und Lizenzen (Inländer)</t>
+  </si>
+  <si>
+    <t>Konzessionen/Lizenzen-&gt;Konzessionen u. Lizenzen, beschr stpfl Zahl.empf (Ausländer)</t>
+  </si>
+  <si>
+    <t>Literatur-&gt;Aufw. für elektr. Zeitschriften und Zeitungen (DBS 134)</t>
+  </si>
+  <si>
+    <t>Literatur-&gt;Aufwendungen für Zeitungen und Zeitschriften (DBS 123)</t>
+  </si>
+  <si>
+    <t>Literatur-&gt;Ausgaben für Datenbanken (121)</t>
+  </si>
+  <si>
+    <t>Literatur-&gt;Buchbindekosten und Bestandserhalt (DBS 157)</t>
+  </si>
+  <si>
+    <t>Literatur-&gt;Bücher einschl. Dissertationen (DBS 21)</t>
+  </si>
+  <si>
+    <t>Literatur-&gt;E-Books (113.1)</t>
+  </si>
+  <si>
+    <t>Literatur-&gt;Open Access Publikationen (DBS 151.1)</t>
+  </si>
+  <si>
+    <t>Literatur-&gt;Sonstige Druckwerke (DBS 41)</t>
+  </si>
+  <si>
+    <t>Marketing-&gt;Aufw. f. Flyer, Plakate und Druckerzeugnisse</t>
+  </si>
+  <si>
+    <t>Marketing-&gt;Aufw. f. Werbespots und Anzeigen</t>
+  </si>
+  <si>
+    <t>Marketing-&gt;Aufwendungen für bezogene Waren (Merchandising Artikel)</t>
+  </si>
+  <si>
+    <t>Marketing-&gt;Messen (Standgebühren f. Teilnahme an Messen)</t>
+  </si>
+  <si>
+    <t>Material Bauunterhalt und Außenanlagen-&gt;Aufwendungen Material für Bauunterhalt Gebäude</t>
+  </si>
+  <si>
+    <t>Material Bauunterhalt und Außenanlagen-&gt;AW Material Bauunterhalt, Rep Geräte, Ausstattungen</t>
+  </si>
+  <si>
+    <t>Material Bauunterhalt und Außenanlagen-&gt;AW Material Bauunterhalt, Rep. Außenanlagen</t>
+  </si>
+  <si>
+    <t>Material Bauunterhalt und Außenanlagen-&gt;AW Material Bauunterhalt, Rep. Schließanlagen</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Grundmiete Fuhrpark</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Grundmiete Hardware</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Leasing Fuhrpark</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Leasing für Geräte,Maschinen,Betriebs- Geschäftsausstattung</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Leasing Hardware</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Leasingnebenkosten Software</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Miete Gebäude, Räume, Grundstücke</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Mieten für Datenleitungen</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Mieten Kopierer</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Mieten Maschinen, Geräten Ausstattung</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Mietnebenkosten Fuhrpark</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Mietnebenkosten Gebäude, Räume, Grundstücke</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Mietnebenkosten Hardware</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Mietnebenkosten, Maschinen, Geräte, Ausstattung</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Pachten für bewegliche Wirtschaftsgüter</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Pachten Gebäude, Räume und Grundstücke</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Pachtnebenkosten bewegliche Wirtschaftsgüter</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Pachtnebenkosten Gebäude/ Räume/ Grundstücke</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;sonstige Leasingkosten Software</t>
+  </si>
+  <si>
+    <t>Miete/Pacht/Leasing-&gt;Zeitl. befr. Überlassung von Software, Lizenzen &amp; Rechten</t>
+  </si>
+  <si>
+    <t>Patent- und Schutzrechte-&gt;Aufwendungen für Patent- und Schutzrechte</t>
+  </si>
+  <si>
+    <t>Porto/Kurier-&gt;Kurier- und Transportkosten</t>
+  </si>
+  <si>
+    <t>Porto/Kurier-&gt;Post und Porto, Versandgebühren Inland und Ausland</t>
+  </si>
+  <si>
+    <t>Reinigung und Hygiene-&gt;Reinigungs-, Hygieneartikel</t>
+  </si>
+  <si>
+    <t>Repräsentation-&gt;Aufmerksamkeiten</t>
+  </si>
+  <si>
+    <t>Repräsentation-&gt;Betriebsveranstaltungen</t>
+  </si>
+  <si>
+    <t>Repräsentation-&gt;Bewirtung von Arbeitnehmern</t>
+  </si>
+  <si>
+    <t>Repräsentation-&gt;Bewirtungskosten</t>
+  </si>
+  <si>
+    <t>Repräsentation-&gt;Bewirtungskosten (keine Beschäftigten)</t>
+  </si>
+  <si>
+    <t>Repräsentation-&gt;Geschenke abzugsfähig 10 EUR - 35 EUR</t>
+  </si>
+  <si>
+    <t>Repräsentation-&gt;Geschenke nicht abzugsfähig über 35 EUR</t>
+  </si>
+  <si>
+    <t>Repräsentation-&gt;Geschenke unter 10 EUR, Streuwerbeartikel</t>
+  </si>
+  <si>
+    <t>Repräsentation-&gt;Jubiläumsbeigaben (keine Zahlungen)</t>
+  </si>
+  <si>
+    <t>Repräsentation-&gt;Veranstaltungs- und Übernachtungskosten Gäste</t>
+  </si>
+  <si>
+    <t>Roh-, Hilfs- und Betriebsstoffe-&gt;Aufwendungen für Rohstoffe,Fertigungsmaterial</t>
+  </si>
+  <si>
+    <t>Roh-, Hilfs- und Betriebsstoffe-&gt;Hilfs- und Betriebsstoffe</t>
+  </si>
+  <si>
+    <t>Roh-, Hilfs- und Betriebsstoffe-&gt;Vorprodukte,Fremdmaterial</t>
+  </si>
+  <si>
+    <t>Stellenausschreibungen-&gt;Stellenausschreibungen für den wissenschaftlichen Bereich</t>
+  </si>
+  <si>
+    <t>Stellenausschreibungen-&gt;Stellenausschreibungen nichtwissenschaftlicher Bereich</t>
+  </si>
+  <si>
+    <t>Telekommunikation-&gt;Aufwendungen f. Festnetz, Handy und Internet</t>
+  </si>
+  <si>
+    <t>Telekommunikation-&gt;Gebühren für Festnetz und Fax</t>
+  </si>
+  <si>
+    <t>Veröffentlichung/Publikation-&gt;Fachveröffentlichungen und Publikationen</t>
+  </si>
+  <si>
+    <t>Verwaltungsgebühren-&gt;Verwaltungsgebühren</t>
+  </si>
+  <si>
+    <t>Wartung und Reparatur-&gt;Fremdinstandhaltung und Wartung</t>
+  </si>
+  <si>
+    <t>Wartung und Reparatur-&gt;Fremdinstandhaltung, Wartung und Prüfung</t>
+  </si>
+  <si>
+    <t>Wartung und Reparatur-&gt;Fremdreparaturen,Instandhaltung für Grundstücke u. Gebäude</t>
+  </si>
+  <si>
+    <t>Wartung und Reparatur-&gt;Unterhalt,Wartung Kopierer</t>
+  </si>
+  <si>
+    <t>Wartung und Reparatur-&gt;Wartung und Reparatur von Betriebs- und Geschäftsausstattung</t>
+  </si>
+  <si>
+    <t>Wartung und Reparatur-&gt;Wartung, Reparatur techn. Anlagen</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5782,42 +6268,48 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99AAF534-EA16-46AD-9862-AF0B06D85623}">
           <x14:formula1>
-            <xm:f>Dropdown_Werte!$E$2:$E$8</xm:f>
+            <xm:f>Dropdown_Werte!$F$2:$F$8</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K201</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2CA55C58-C07A-435C-9D10-35B457E7961A}">
           <x14:formula1>
-            <xm:f>Dropdown_Werte!$B$2:$B$3</xm:f>
+            <xm:f>Dropdown_Werte!$C$2:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D201</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C8298AE1-C600-4F3D-81D4-B8F0E67AFA13}">
           <x14:formula1>
-            <xm:f>Dropdown_Werte!$A$2:$A$7</xm:f>
+            <xm:f>Dropdown_Werte!$B$2:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C201</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5E966B40-8B17-44A4-8A1D-55A5DF90376F}">
           <x14:formula1>
-            <xm:f>Dropdown_Werte!$D$2:$D$3</xm:f>
+            <xm:f>Dropdown_Werte!$E$2:$E$3</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G201</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{81AB29F6-F109-45CC-81C3-66A539AE2E8D}">
           <x14:formula1>
-            <xm:f>Dropdown_Werte!$C$2:$C$3</xm:f>
+            <xm:f>Dropdown_Werte!$D$2:$D$3</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F201</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7CBB80D7-22B0-47BD-ADBD-34513EDBBBB3}">
           <x14:formula1>
-            <xm:f>Dropdown_Werte!$F$2:$F$4</xm:f>
+            <xm:f>Dropdown_Werte!$G$2:$G$4</xm:f>
           </x14:formula1>
           <xm:sqref>O2:O34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D1142E74-2844-49E5-A281-8BCDBA837C7E}">
+          <x14:formula1>
+            <xm:f>Dropdown_Werte!$A$2:$A$164</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A201</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6078,120 +6570,925 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
